--- a/directed_trips_regions_bimonthly.xlsx
+++ b/directed_trips_regions_bimonthly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Dropbox\NMFS\fluke_mse\simulation_R_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -458,8 +458,8 @@
   <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R65" sqref="R65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1599,7 +1599,8 @@
         <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>16.5</v>
+        <f>ROUNDDOWN(R14, 0)</f>
+        <v>16</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1685,7 +1686,8 @@
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>16.5</v>
+        <f t="shared" ref="F15:F29" si="0">ROUNDDOWN(R15, 0)</f>
+        <v>16</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1771,7 +1773,8 @@
         <v>4</v>
       </c>
       <c r="F16" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1857,7 +1860,8 @@
         <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1943,7 +1947,8 @@
         <v>4</v>
       </c>
       <c r="F18" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2029,7 +2034,8 @@
         <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2115,7 +2121,8 @@
         <v>4</v>
       </c>
       <c r="F20" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -2201,7 +2208,8 @@
         <v>4</v>
       </c>
       <c r="F21" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2287,7 +2295,8 @@
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2373,7 +2382,8 @@
         <v>4</v>
       </c>
       <c r="F23" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2459,7 +2469,8 @@
         <v>4</v>
       </c>
       <c r="F24" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2545,7 +2556,8 @@
         <v>4</v>
       </c>
       <c r="F25" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2631,7 +2643,8 @@
         <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2717,7 +2730,8 @@
         <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2803,7 +2817,8 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -2889,7 +2904,8 @@
         <v>4</v>
       </c>
       <c r="F29" s="1">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3921,7 +3937,8 @@
         <v>4</v>
       </c>
       <c r="F41" s="1">
-        <v>16.5</v>
+        <f>ROUNDDOWN(R41,0)</f>
+        <v>16</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -4007,7 +4024,8 @@
         <v>4</v>
       </c>
       <c r="F42" s="1">
-        <v>16.5</v>
+        <f t="shared" ref="F42:F55" si="1">ROUNDDOWN(R42,0)</f>
+        <v>16</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -4093,7 +4111,8 @@
         <v>4</v>
       </c>
       <c r="F43" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -4179,7 +4198,8 @@
         <v>4</v>
       </c>
       <c r="F44" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
@@ -4265,7 +4285,8 @@
         <v>4</v>
       </c>
       <c r="F45" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
@@ -4351,7 +4372,8 @@
         <v>4</v>
       </c>
       <c r="F46" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G46" s="1">
         <v>100</v>
@@ -4437,7 +4459,8 @@
         <v>4</v>
       </c>
       <c r="F47" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -4523,7 +4546,8 @@
         <v>4</v>
       </c>
       <c r="F48" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G48" s="1">
         <v>100</v>
@@ -4609,7 +4633,8 @@
         <v>4</v>
       </c>
       <c r="F49" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G49" s="1">
         <v>100</v>
@@ -4695,7 +4720,8 @@
         <v>4</v>
       </c>
       <c r="F50" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G50" s="1">
         <v>100</v>
@@ -4781,7 +4807,8 @@
         <v>4</v>
       </c>
       <c r="F51" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
@@ -4867,7 +4894,8 @@
         <v>4</v>
       </c>
       <c r="F52" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G52" s="1">
         <v>100</v>
@@ -4953,7 +4981,8 @@
         <v>4</v>
       </c>
       <c r="F53" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G53" s="1">
         <v>100</v>
@@ -5039,7 +5068,8 @@
         <v>4</v>
       </c>
       <c r="F54" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5125,7 +5155,8 @@
         <v>4</v>
       </c>
       <c r="F55" s="1">
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G55" s="1">
         <v>100</v>
@@ -9769,7 +9800,8 @@
         <v>4</v>
       </c>
       <c r="F109" s="1">
-        <v>16.5</v>
+        <f>ROUNDDOWN(R109,0)</f>
+        <v>16</v>
       </c>
       <c r="G109" s="1">
         <v>100</v>
@@ -9855,7 +9887,8 @@
         <v>4</v>
       </c>
       <c r="F110" s="1">
-        <v>16.5</v>
+        <f t="shared" ref="F110:F124" si="2">ROUNDDOWN(R110,0)</f>
+        <v>16</v>
       </c>
       <c r="G110" s="1">
         <v>100</v>
@@ -9941,7 +9974,8 @@
         <v>4</v>
       </c>
       <c r="F111" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G111" s="1">
         <v>100</v>
@@ -10027,7 +10061,8 @@
         <v>4</v>
       </c>
       <c r="F112" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G112" s="1">
         <v>100</v>
@@ -10113,7 +10148,8 @@
         <v>4</v>
       </c>
       <c r="F113" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -10199,7 +10235,8 @@
         <v>4</v>
       </c>
       <c r="F114" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G114" s="1">
         <v>100</v>
@@ -10285,7 +10322,8 @@
         <v>4</v>
       </c>
       <c r="F115" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G115" s="1">
         <v>100</v>
@@ -10371,7 +10409,8 @@
         <v>4</v>
       </c>
       <c r="F116" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G116" s="1">
         <v>100</v>
@@ -10457,7 +10496,8 @@
         <v>4</v>
       </c>
       <c r="F117" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G117" s="1">
         <v>100</v>
@@ -10543,7 +10583,8 @@
         <v>4</v>
       </c>
       <c r="F118" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G118" s="1">
         <v>100</v>
@@ -10629,7 +10670,8 @@
         <v>4</v>
       </c>
       <c r="F119" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G119" s="1">
         <v>100</v>
@@ -10715,7 +10757,8 @@
         <v>4</v>
       </c>
       <c r="F120" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G120" s="1">
         <v>100</v>
@@ -10801,7 +10844,8 @@
         <v>4</v>
       </c>
       <c r="F121" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -10887,7 +10931,8 @@
         <v>4</v>
       </c>
       <c r="F122" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G122" s="1">
         <v>100</v>
@@ -10973,7 +11018,8 @@
         <v>4</v>
       </c>
       <c r="F123" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G123" s="1">
         <v>100</v>
@@ -11059,7 +11105,8 @@
         <v>4</v>
       </c>
       <c r="F124" s="1">
-        <v>16.5</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="G124" s="1">
         <v>100</v>

--- a/directed_trips_regions_bimonthly.xlsx
+++ b/directed_trips_regions_bimonthly.xlsx
@@ -458,8 +458,8 @@
   <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1599,8 +1599,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="1">
-        <f>ROUNDDOWN(R14, 0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1686,8 +1685,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ref="F15:F29" si="0">ROUNDDOWN(R15, 0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1773,8 +1771,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1860,8 +1857,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1947,8 +1943,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2034,8 +2029,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2121,8 +2115,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -2208,8 +2201,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2295,8 +2287,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2382,8 +2373,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2469,8 +2459,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2556,8 +2545,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2643,8 +2631,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2730,8 +2717,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2817,8 +2803,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -2904,8 +2889,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3937,8 +3921,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="1">
-        <f>ROUNDDOWN(R41,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -4024,8 +4007,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ref="F42:F55" si="1">ROUNDDOWN(R42,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -4111,8 +4093,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -4198,8 +4179,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
@@ -4285,8 +4265,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
@@ -4372,8 +4351,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G46" s="1">
         <v>100</v>
@@ -4459,8 +4437,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -4546,8 +4523,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1">
         <v>100</v>
@@ -4633,8 +4609,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" s="1">
         <v>100</v>
@@ -4720,8 +4695,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50" s="1">
         <v>100</v>
@@ -4807,8 +4781,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
@@ -4894,8 +4867,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" s="1">
         <v>100</v>
@@ -4981,8 +4953,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" s="1">
         <v>100</v>
@@ -5068,8 +5039,7 @@
         <v>4</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5155,8 +5125,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G55" s="1">
         <v>100</v>
@@ -9800,8 +9769,7 @@
         <v>4</v>
       </c>
       <c r="F109" s="1">
-        <f>ROUNDDOWN(R109,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G109" s="1">
         <v>100</v>
@@ -9887,8 +9855,7 @@
         <v>4</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" ref="F110:F124" si="2">ROUNDDOWN(R110,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G110" s="1">
         <v>100</v>
@@ -9974,8 +9941,7 @@
         <v>4</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G111" s="1">
         <v>100</v>
@@ -10061,8 +10027,7 @@
         <v>4</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G112" s="1">
         <v>100</v>
@@ -10148,8 +10113,7 @@
         <v>4</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -10235,8 +10199,7 @@
         <v>4</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G114" s="1">
         <v>100</v>
@@ -10322,8 +10285,7 @@
         <v>4</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G115" s="1">
         <v>100</v>
@@ -10409,8 +10371,7 @@
         <v>4</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G116" s="1">
         <v>100</v>
@@ -10496,8 +10457,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G117" s="1">
         <v>100</v>
@@ -10583,8 +10543,7 @@
         <v>4</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G118" s="1">
         <v>100</v>
@@ -10670,8 +10629,7 @@
         <v>4</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G119" s="1">
         <v>100</v>
@@ -10757,8 +10715,7 @@
         <v>4</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G120" s="1">
         <v>100</v>
@@ -10844,8 +10801,7 @@
         <v>4</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -10931,8 +10887,7 @@
         <v>4</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G122" s="1">
         <v>100</v>
@@ -11018,8 +10973,7 @@
         <v>4</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G123" s="1">
         <v>100</v>
@@ -11105,8 +11059,7 @@
         <v>4</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G124" s="1">
         <v>100</v>
